--- a/Documentação/PRODUCT BACKLOG/DATAFOUND - PRODUCT BACKLOG SPRINT2.xlsx
+++ b/Documentação/PRODUCT BACKLOG/DATAFOUND - PRODUCT BACKLOG SPRINT2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\SPTech\PROJETO\GITHUB\DATAFOUND2\DATAFOUND\Documentação\PRODUCT BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE3BE5-AEE2-4B11-94DD-DB64247DB579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC463E3-B30A-4F94-B3C2-3F91E94929DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ED23CF97-B3EA-4DB3-A5D9-15B0E37FD2C6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>DataFound - BACKLOG</t>
   </si>
@@ -185,6 +185,75 @@
   </si>
   <si>
     <t>Samuel de Oliveira Pereira</t>
+  </si>
+  <si>
+    <t>Manual de Instalação</t>
+  </si>
+  <si>
+    <t>Doc. Final do Projeto - Completo</t>
+  </si>
+  <si>
+    <t>PPT da Apresentação do Projeto – “Impecável”</t>
+  </si>
+  <si>
+    <t>Site Institucional – versão final, publicada na nuvem</t>
+  </si>
+  <si>
+    <t>Cadastro, Login e Dashboard, conectado com BD na nuvem</t>
+  </si>
+  <si>
+    <t>Fluxograma do Processo de Atendimento do Suporte</t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk configurada e integrada à solução</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica (Final)</t>
+  </si>
+  <si>
+    <t>Tabelas criadas no Azure (Nuvem)</t>
+  </si>
+  <si>
+    <t>Teste Integrado do Analytics (Alertas)</t>
+  </si>
+  <si>
+    <t>Atualização final da Documentação do projeto, conforme a Sprint 3</t>
+  </si>
+  <si>
+    <t>Slide Atualizado com o novo Product Backlog</t>
+  </si>
+  <si>
+    <t>Site hospedado na Azure Nuvem da Microsoft</t>
+  </si>
+  <si>
+    <t>Site em Nuvem e Conectado com o Banco de Dados em MySQL Server</t>
+  </si>
+  <si>
+    <t>Desenho lógico do passo a passo do procedimento de Atendimento Suporte</t>
+  </si>
+  <si>
+    <t>Redirecionamento para o Atendimento Online linkada no Site Institucional</t>
+  </si>
+  <si>
+    <t>Atualização da Modelagem Lógica préviamente criada</t>
+  </si>
+  <si>
+    <t>Tabelas préviamente criadas realocadas para a Nuvem Azure</t>
+  </si>
+  <si>
+    <t>Alertas e Analytics para notificação do usuário</t>
+  </si>
+  <si>
+    <t>SP5</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>SP7</t>
+  </si>
+  <si>
+    <t>SP8</t>
   </si>
 </sst>
 </file>
@@ -236,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +360,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -378,16 +459,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -399,7 +510,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -411,88 +522,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -534,11 +570,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -570,29 +645,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,33 +684,48 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,6 +734,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB4C6E7"/>
+      <color rgb="FFD9E1F2"/>
       <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
@@ -949,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971082B2-BB53-4E52-84E6-7106102FB153}">
-  <dimension ref="B2:G27"/>
+  <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,22 +1065,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
@@ -1028,7 +1126,7 @@
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1244,102 +1342,302 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+    <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="11">
         <v>13</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="35">
+        <v>11</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="41">
+        <v>8</v>
+      </c>
+      <c r="F20" s="40">
+        <v>22</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="12">
+        <v>13</v>
+      </c>
+      <c r="F21" s="35">
+        <v>21</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="41">
+        <v>8</v>
+      </c>
+      <c r="F22" s="40">
+        <v>14</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="12">
+        <v>8</v>
+      </c>
+      <c r="F23" s="35">
+        <v>15</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="41">
+        <v>13</v>
+      </c>
+      <c r="F24" s="40">
+        <v>19</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="43">
+        <v>21</v>
+      </c>
+      <c r="F25" s="42">
+        <v>18</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="40">
+        <v>3</v>
+      </c>
+      <c r="F26" s="40">
+        <v>17</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="35">
+        <v>3</v>
+      </c>
+      <c r="F27" s="35">
+        <v>16</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="11">
+        <v>21</v>
+      </c>
+      <c r="F28" s="40">
+        <v>20</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E36" s="4">
         <f>SUM(E6:E17)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E37" s="6">
         <f>SUM(E6,E8,E11,E13)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="5" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E38" s="6">
         <f>SUM(E9,E6,E14)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E39" s="6">
         <f>SUM(E6,E15,E16)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="5" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E40" s="6">
         <f>SUM(E6,E7,E17,E12)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36" t="s">
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="8">
+        <f>(E36/4)</f>
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8">
-        <f>(E22/4)</f>
-        <v>33.75</v>
       </c>
     </row>
   </sheetData>
